--- a/Dev/Files/Siebel Service/ITAF_DataBank_Service.xlsx
+++ b/Dev/Files/Siebel Service/ITAF_DataBank_Service.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="337">
   <si>
     <t>TC_ID</t>
   </si>
@@ -183,9 +183,6 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>http://siebeluat.prod.quest.corp/dbsupport_enu/start.swe?SWECmd=AutoOn</t>
-  </si>
-  <si>
     <t>SUPPORT_ADMIN</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>TC05</t>
   </si>
   <si>
-    <t>art.cognizant2@gmail.com.dev</t>
-  </si>
-  <si>
     <t>Toad for DB2</t>
   </si>
   <si>
@@ -426,24 +420,15 @@
     <t>TC28</t>
   </si>
   <si>
-    <t>1-53AHCRA</t>
-  </si>
-  <si>
     <t>TC29</t>
   </si>
   <si>
     <t>art.cognizant23@gmail.com.dev</t>
   </si>
   <si>
-    <t>1-53AHCQX</t>
-  </si>
-  <si>
     <t>1-IJPXN2</t>
   </si>
   <si>
-    <t>TEST ACCOUNT FOR SERVICE AUTOMATION - AG</t>
-  </si>
-  <si>
     <t>TC30</t>
   </si>
   <si>
@@ -549,9 +534,6 @@
     <t>TC50</t>
   </si>
   <si>
-    <t>1-8XKSUR</t>
-  </si>
-  <si>
     <t>TC51</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
     <t>joykknph@sharklasers.com</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -1036,13 +1015,28 @@
   </si>
   <si>
     <t>Verify Entitlement  for Assets with Business Critical Support for JAPAN region when Account Type is Partner(using Asset = 1-9N6DUR)</t>
+  </si>
+  <si>
+    <t>http://siebeluat/dbsupport_enu/start.swe?SWECmd=AutoOn</t>
+  </si>
+  <si>
+    <t>art.congnizant6@sharklasers.com</t>
+  </si>
+  <si>
+    <t>TEST ACCOUNT FOR SERVICE - AUTOMATION - AMER 1</t>
+  </si>
+  <si>
+    <t>1-5SK3GXT</t>
+  </si>
+  <si>
+    <t>TEST ACCOUNT FOR SERVICE - AUTOMATION - AG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,8 +1171,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,6 +1360,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1475,7 +1483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1518,14 +1526,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1559,6 +1573,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1847,2287 +1862,2293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.08984375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>54</v>
+      <c r="D2" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
       <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
-        <v>64</v>
-      </c>
       <c r="AW2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>66</v>
       </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
-      </c>
       <c r="T3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AW3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
       <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>63</v>
       </c>
-      <c r="T4" t="s">
-        <v>64</v>
-      </c>
       <c r="AW4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
       <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>62</v>
       </c>
-      <c r="O5" t="s">
+      <c r="T5" t="s">
         <v>63</v>
       </c>
-      <c r="T5" t="s">
-        <v>64</v>
-      </c>
       <c r="AW5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="P6" t="s">
         <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
         <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
         <v>74</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
         <v>74</v>
       </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" t="s">
-        <v>76</v>
-      </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>88</v>
       </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>90</v>
-      </c>
-      <c r="M10" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
         <v>100</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
         <v>88</v>
       </c>
-      <c r="H14" t="s">
+      <c r="M14" t="s">
         <v>89</v>
       </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>90</v>
       </c>
-      <c r="M14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" t="s">
-        <v>92</v>
-      </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:55" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="P15" t="s">
         <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" t="s">
-        <v>106</v>
-      </c>
-      <c r="P15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
         <v>108</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" t="s">
-        <v>106</v>
-      </c>
-      <c r="O16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>234</v>
-      </c>
-      <c r="K17" t="s">
-        <v>114</v>
-      </c>
       <c r="M17" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
         <v>112</v>
       </c>
-      <c r="H18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" t="s">
-        <v>114</v>
-      </c>
       <c r="M18" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M19" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>112</v>
+        <v>54</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M20" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="P22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>112</v>
+        <v>54</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="P24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="I25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" t="s">
-        <v>72</v>
-      </c>
       <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
         <v>62</v>
-      </c>
-      <c r="O25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" t="s">
+        <v>335</v>
+      </c>
+      <c r="M28" t="s">
         <v>131</v>
       </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" t="s">
-        <v>133</v>
-      </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" t="s">
-        <v>137</v>
+        <v>54</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>335</v>
       </c>
       <c r="L30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c r="O30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>142</v>
+        <v>54</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M34" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M44" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M45" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M47" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:51" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:51" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M50" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:51" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K51" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="M51" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:51" ht="58" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" t="s">
         <v>55</v>
       </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s">
-        <v>56</v>
-      </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
         <v>55</v>
       </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s">
-        <v>56</v>
-      </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M56" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="U58">
         <v>12.8</v>
       </c>
       <c r="AX58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AY58">
         <v>8.1</v>
@@ -4135,458 +4156,471 @@
     </row>
     <row r="59" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E60" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E62" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F64" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C65" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E67" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
         <v>55</v>
       </c>
-      <c r="F68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" t="s">
-        <v>56</v>
-      </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA70" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F71" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA71" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA72" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="BB72" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA73" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA74" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA75" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F76" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AZ76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BA76" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="3:54" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G80" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G82" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G83" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G85" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G86" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G87" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://siebeluat.prod.quest.corp/dbsupport_enu/start.swe?SWECmd=AutoOn"/>
+    <hyperlink ref="G24" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G7" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G17" r:id="rId7"/>
+    <hyperlink ref="G30" r:id="rId8"/>
+    <hyperlink ref="G18" r:id="rId9"/>
+    <hyperlink ref="G31" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>